--- a/SeleniumTest/src/excelExportAndFileIO/Datasheet.xlsx
+++ b/SeleniumTest/src/excelExportAndFileIO/Datasheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15165" windowHeight="3510"/>
   </bookViews>
   <sheets>
     <sheet name="name" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Priyanka</t>
   </si>
@@ -28,6 +29,12 @@
   </si>
   <si>
     <t>Dolly</t>
+  </si>
+  <si>
+    <t>Princy</t>
+  </si>
+  <si>
+    <t>Nikhil</t>
   </si>
 </sst>
 </file>
@@ -359,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -381,6 +388,14 @@
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/SeleniumTest/src/excelExportAndFileIO/Datasheet.xlsx
+++ b/SeleniumTest/src/excelExportAndFileIO/Datasheet.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>Priyanka</t>
   </si>
@@ -35,12 +34,22 @@
   </si>
   <si>
     <t>Nikhil</t>
+  </si>
+  <si>
+    <t>lovr</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>mukeshkjfhdsjfhk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -369,7 +378,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -396,6 +405,70 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
